--- a/config/excel/Tower.xlsx
+++ b/config/excel/Tower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -46,11 +46,11 @@
     <t>备注</t>
   </si>
   <si>
-    <t>0:综合试炼
-1:韵律
-2:自然
-3:文明
-4:破灭</t>
+    <t>0:韵律
+1:自然
+2:文明
+3:破灭
+4:综合试炼</t>
   </si>
   <si>
     <t>导出字段</t>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>只能上阵韵律英雄</t>
   </si>
   <si>
     <t>所有种族的英雄均可上阵</t>
@@ -865,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,13 +1276,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1313,7 +1319,7 @@
       <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1330,7 +1336,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" ht="14.4" spans="2:9">
       <c r="B3" s="10" t="s">
@@ -1463,7 +1469,7 @@
       <c r="E8" s="19">
         <v>10</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="19">
@@ -1473,6 +1479,30 @@
         <v>2</v>
       </c>
       <c r="I8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" spans="2:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="15">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2</v>
+      </c>
+      <c r="I9" s="19">
         <v>1</v>
       </c>
     </row>
